--- a/Scripts_vjcortesa/data_output/GS2_25-24_sessions/vjcortesa_G2_Income_dist_251007.xlsx
+++ b/Scripts_vjcortesa/data_output/GS2_25-24_sessions/vjcortesa_G2_Income_dist_251007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jcortesarevalo_tudelft_nl/Documents/Documents/TUDelft/18_Game Data Analysis/R data analysis BEPs/Scripts_vjcortesa/data_output/GS2_25-24_sessions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F23BDB62960D8129871DA435F6C531E2AF181C93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F41BDB5-3480-4154-842B-6564D304C6FE}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F23BDB62960D8129871DA435F6C531E2AF181C93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F73B5DA6-B56F-445A-9958-A9C45C353147}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">df_income_dist!$A$1:$Z$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">housemeasure!$A$1:$R$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">personalmeasure!$A$1:$V$185</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1216,10 +1230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z121"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1304,7 +1319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1526,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1600,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1680,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1988,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2062,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2130,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2204,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2426,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2494,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2648,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2722,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2796,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2864,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2944,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3024,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3098,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3172,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3240,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3314,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3388,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3542,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3610,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3690,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3770,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3850,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -3930,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -3998,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4072,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4146,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4220,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -4294,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -4362,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -4436,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4510,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -4581,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -4652,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -4720,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -4791,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -4865,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -5016,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -5084,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -5164,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -5244,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -5318,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -5392,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -5460,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -5540,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -5614,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -5694,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -5768,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -5836,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -5910,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -5984,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -6058,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -6132,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -6200,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -6280,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -6360,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -6434,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -6508,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -6576,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -6650,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -6724,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -6878,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -6946,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -7017,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -7088,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -7239,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -7307,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -7387,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -7461,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -7541,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -7615,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -7683,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -7763,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -7843,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -7917,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -7991,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -8059,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -8130,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -8201,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -8275,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -8346,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -8414,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -8488,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -8568,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -8648,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -8722,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -8790,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -8870,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -8950,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -9030,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -9104,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -9172,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -9246,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -9326,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -9400,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -9474,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -9542,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -9616,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -9696,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -9776,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -9850,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -9918,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -9998,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -10072,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -10152,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -10233,7 +10248,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z121" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="22">
+      <filters>
+        <filter val="-1000"/>
+        <filter val="-14000"/>
+        <filter val="1500"/>
+        <filter val="2250"/>
+        <filter val="-6500"/>
+        <filter val="750"/>
+        <filter val="-8000"/>
+        <filter val="-8625"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -29178,10 +29206,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29257,7 +29286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>332</v>
       </c>
@@ -29325,7 +29354,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>333</v>
       </c>
@@ -29393,7 +29422,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>380</v>
       </c>
@@ -29461,7 +29490,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>381</v>
       </c>
@@ -29529,7 +29558,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>382</v>
       </c>
@@ -29597,7 +29626,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>426</v>
       </c>
@@ -29665,7 +29694,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>427</v>
       </c>
@@ -29733,7 +29762,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>428</v>
       </c>
@@ -29801,7 +29830,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>466</v>
       </c>
@@ -30277,7 +30306,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>331</v>
       </c>
@@ -30342,7 +30371,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>458</v>
       </c>
@@ -30410,7 +30439,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>459</v>
       </c>
@@ -30478,7 +30507,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>338</v>
       </c>
@@ -30546,7 +30575,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>339</v>
       </c>
@@ -30614,7 +30643,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>370</v>
       </c>
@@ -30682,7 +30711,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>371</v>
       </c>
@@ -30750,7 +30779,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>432</v>
       </c>
@@ -30818,7 +30847,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>433</v>
       </c>
@@ -30886,7 +30915,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>464</v>
       </c>
@@ -30954,7 +30983,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>465</v>
       </c>
@@ -31022,7 +31051,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>327</v>
       </c>
@@ -31090,7 +31119,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>328</v>
       </c>
@@ -31158,7 +31187,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>372</v>
       </c>
@@ -31226,7 +31255,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>373</v>
       </c>
@@ -31294,7 +31323,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>374</v>
       </c>
@@ -31362,7 +31391,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>418</v>
       </c>
@@ -31430,7 +31459,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>419</v>
       </c>
@@ -31498,7 +31527,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>420</v>
       </c>
@@ -31566,7 +31595,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>421</v>
       </c>
@@ -31634,7 +31663,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>460</v>
       </c>
@@ -31702,7 +31731,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>461</v>
       </c>
@@ -31770,7 +31799,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>462</v>
       </c>
@@ -31838,7 +31867,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>463</v>
       </c>
@@ -31906,7 +31935,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>334</v>
       </c>
@@ -31971,7 +32000,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>335</v>
       </c>
@@ -32036,7 +32065,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>336</v>
       </c>
@@ -32101,7 +32130,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>377</v>
       </c>
@@ -32166,7 +32195,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>378</v>
       </c>
@@ -32231,7 +32260,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>379</v>
       </c>
@@ -32296,7 +32325,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>407</v>
       </c>
@@ -32361,7 +32390,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>408</v>
       </c>
@@ -32426,7 +32455,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>409</v>
       </c>
@@ -32491,7 +32520,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>467</v>
       </c>
@@ -32559,7 +32588,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>468</v>
       </c>
@@ -32627,7 +32656,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>337</v>
       </c>
@@ -32695,7 +32724,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>388</v>
       </c>
@@ -32763,7 +32792,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>445</v>
       </c>
@@ -32831,7 +32860,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>498</v>
       </c>
@@ -32899,7 +32928,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>499</v>
       </c>
@@ -32967,7 +32996,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>500</v>
       </c>
@@ -33035,7 +33064,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>501</v>
       </c>
@@ -33103,7 +33132,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>340</v>
       </c>
@@ -33171,7 +33200,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>385</v>
       </c>
@@ -33239,7 +33268,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>386</v>
       </c>
@@ -33304,7 +33333,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>387</v>
       </c>
@@ -33369,7 +33398,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>494</v>
       </c>
@@ -33437,7 +33466,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>495</v>
       </c>
@@ -33505,7 +33534,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>496</v>
       </c>
@@ -33573,7 +33602,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>497</v>
       </c>
@@ -33641,7 +33670,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>344</v>
       </c>
@@ -33709,7 +33738,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>345</v>
       </c>
@@ -33777,7 +33806,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>391</v>
       </c>
@@ -33845,7 +33874,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>392</v>
       </c>
@@ -33913,7 +33942,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>446</v>
       </c>
@@ -33981,7 +34010,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>447</v>
       </c>
@@ -34049,7 +34078,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>448</v>
       </c>
@@ -34117,7 +34146,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>449</v>
       </c>
@@ -34185,7 +34214,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>491</v>
       </c>
@@ -34253,7 +34282,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>492</v>
       </c>
@@ -34321,7 +34350,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>493</v>
       </c>
@@ -34389,7 +34418,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>341</v>
       </c>
@@ -34457,7 +34486,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>342</v>
       </c>
@@ -34525,7 +34554,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>343</v>
       </c>
@@ -34593,7 +34622,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>383</v>
       </c>
@@ -34661,7 +34690,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>384</v>
       </c>
@@ -34729,7 +34758,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>434</v>
       </c>
@@ -34797,7 +34826,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>435</v>
       </c>
@@ -34865,7 +34894,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>436</v>
       </c>
@@ -34933,7 +34962,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>487</v>
       </c>
@@ -35001,7 +35030,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>488</v>
       </c>
@@ -35069,7 +35098,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>489</v>
       </c>
@@ -35137,7 +35166,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>490</v>
       </c>
@@ -35205,7 +35234,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>319</v>
       </c>
@@ -35273,7 +35302,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>482</v>
       </c>
@@ -35341,7 +35370,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>483</v>
       </c>
@@ -35409,7 +35438,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>321</v>
       </c>
@@ -35477,7 +35506,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>322</v>
       </c>
@@ -35545,7 +35574,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>357</v>
       </c>
@@ -35613,7 +35642,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>358</v>
       </c>
@@ -35681,7 +35710,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>414</v>
       </c>
@@ -35749,7 +35778,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>415</v>
       </c>
@@ -35817,7 +35846,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>416</v>
       </c>
@@ -35885,7 +35914,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>417</v>
       </c>
@@ -35953,7 +35982,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>469</v>
       </c>
@@ -36021,7 +36050,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>470</v>
       </c>
@@ -36089,7 +36118,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>471</v>
       </c>
@@ -36157,7 +36186,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>472</v>
       </c>
@@ -36225,7 +36254,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>323</v>
       </c>
@@ -36290,7 +36319,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>361</v>
       </c>
@@ -36355,7 +36384,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>362</v>
       </c>
@@ -36420,7 +36449,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>429</v>
       </c>
@@ -36485,7 +36514,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>430</v>
       </c>
@@ -36550,7 +36579,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>484</v>
       </c>
@@ -36618,7 +36647,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>485</v>
       </c>
@@ -36686,7 +36715,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>486</v>
       </c>
@@ -36754,7 +36783,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>481</v>
       </c>
@@ -36822,7 +36851,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>325</v>
       </c>
@@ -36890,7 +36919,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>326</v>
       </c>
@@ -36958,7 +36987,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>363</v>
       </c>
@@ -37026,7 +37055,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>364</v>
       </c>
@@ -37094,7 +37123,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>365</v>
       </c>
@@ -37162,7 +37191,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>366</v>
       </c>
@@ -37230,7 +37259,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>410</v>
       </c>
@@ -37298,7 +37327,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>411</v>
       </c>
@@ -37366,7 +37395,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>412</v>
       </c>
@@ -37434,7 +37463,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>413</v>
       </c>
@@ -37502,7 +37531,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>477</v>
       </c>
@@ -37570,7 +37599,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>478</v>
       </c>
@@ -37638,7 +37667,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>479</v>
       </c>
@@ -37706,7 +37735,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>480</v>
       </c>
@@ -37774,7 +37803,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>330</v>
       </c>
@@ -37842,7 +37871,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>367</v>
       </c>
@@ -37910,7 +37939,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>368</v>
       </c>
@@ -37978,7 +38007,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>369</v>
       </c>
@@ -38046,7 +38075,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>422</v>
       </c>
@@ -38114,7 +38143,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>423</v>
       </c>
@@ -38182,7 +38211,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>424</v>
       </c>
@@ -38250,7 +38279,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>425</v>
       </c>
@@ -38318,7 +38347,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>473</v>
       </c>
@@ -38386,7 +38415,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>474</v>
       </c>
@@ -38454,7 +38483,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>475</v>
       </c>
@@ -38522,7 +38551,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>476</v>
       </c>
@@ -38590,7 +38619,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>393</v>
       </c>
@@ -38658,7 +38687,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>346</v>
       </c>
@@ -38726,7 +38755,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>347</v>
       </c>
@@ -38794,7 +38823,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>348</v>
       </c>
@@ -38862,7 +38891,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>394</v>
       </c>
@@ -38930,7 +38959,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>395</v>
       </c>
@@ -38998,7 +39027,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>396</v>
       </c>
@@ -39066,7 +39095,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>397</v>
       </c>
@@ -39134,7 +39163,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>450</v>
       </c>
@@ -39202,7 +39231,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>451</v>
       </c>
@@ -39270,7 +39299,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>320</v>
       </c>
@@ -39338,7 +39367,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>356</v>
       </c>
@@ -39406,7 +39435,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>406</v>
       </c>
@@ -39474,7 +39503,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>353</v>
       </c>
@@ -39542,7 +39571,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>354</v>
       </c>
@@ -39610,7 +39639,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>355</v>
       </c>
@@ -39678,7 +39707,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>398</v>
       </c>
@@ -39746,7 +39775,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>399</v>
       </c>
@@ -39814,7 +39843,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>400</v>
       </c>
@@ -39882,7 +39911,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>401</v>
       </c>
@@ -39950,7 +39979,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>437</v>
       </c>
@@ -40018,7 +40047,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>438</v>
       </c>
@@ -40086,7 +40115,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>439</v>
       </c>
@@ -40154,7 +40183,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>440</v>
       </c>
@@ -40222,7 +40251,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>318</v>
       </c>
@@ -40290,7 +40319,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>359</v>
       </c>
@@ -40358,7 +40387,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>360</v>
       </c>
@@ -40426,7 +40455,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>402</v>
       </c>
@@ -40494,7 +40523,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>403</v>
       </c>
@@ -40562,7 +40591,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>404</v>
       </c>
@@ -40630,7 +40659,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>405</v>
       </c>
@@ -40698,7 +40727,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>441</v>
       </c>
@@ -40766,7 +40795,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>442</v>
       </c>
@@ -40834,7 +40863,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>443</v>
       </c>
@@ -40902,7 +40931,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>444</v>
       </c>
@@ -40970,7 +40999,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>324</v>
       </c>
@@ -41038,7 +41067,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>349</v>
       </c>
@@ -41106,7 +41135,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>350</v>
       </c>
@@ -41174,7 +41203,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>351</v>
       </c>
@@ -41242,7 +41271,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>352</v>
       </c>
@@ -41310,7 +41339,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>389</v>
       </c>
@@ -41378,7 +41407,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>390</v>
       </c>
@@ -41446,7 +41475,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>452</v>
       </c>
@@ -41514,7 +41543,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>453</v>
       </c>
@@ -41582,7 +41611,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>454</v>
       </c>
@@ -41650,7 +41679,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>455</v>
       </c>
@@ -41719,6 +41748,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V185" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="t1p2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -41728,8 +41764,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
